--- a/email-list.xlsx
+++ b/email-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HE\Desktop\sendme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B608C6-AD97-4DCE-B831-B152B6329FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED6CFB-9BB9-4C0F-B463-B288F517B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{64DA8388-E216-42B9-A611-4330A70C578A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Email</t>
   </si>
@@ -34,21 +34,6 @@
   </si>
   <si>
     <t>Recipient Last Name</t>
-  </si>
-  <si>
-    <t>ayoub</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>ayoubdouane@gmail.com</t>
-  </si>
-  <si>
-    <t>ayoubotaku1972003@gmail.com</t>
-  </si>
-  <si>
-    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -414,7 +399,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,35 +421,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{12E51237-1BDF-414B-B741-A32D2C4C65AD}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{45B9962A-1FDD-49BC-877A-A7D42F8C41BA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>